--- a/fusionfund2/SummarySheets/SummaryLogs.xlsx
+++ b/fusionfund2/SummarySheets/SummaryLogs.xlsx
@@ -2,28 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,10 +41,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -55,14 +85,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,24 +470,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>SerialNumber</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>File Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Count</t>
         </is>
       </c>
     </row>
@@ -462,6 +503,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -469,18 +511,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-49-47.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-06-14.xlsx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>OpenAI</t>
-        </is>
+          <t>OPENAI</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -489,18 +534,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-51-08.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-07-44.xlsx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>SAIL</t>
         </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -509,18 +557,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-53-42.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-10-44.xlsx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>BAIR</t>
         </is>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -529,18 +580,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-53-54.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-10-58.xlsx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vector</t>
-        </is>
+          <t>VECTOR</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -549,18 +603,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-54-07.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-11-12.xlsx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>CMU</t>
         </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -569,18 +626,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-54-53.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-12-04.xlsx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>FAIR</t>
         </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -589,18 +649,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-54-54.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-12-05.xlsx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GoogleAI</t>
-        </is>
+          <t>GOOGLEAI</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -609,18 +672,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-54-54.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-12-05.xlsx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>AI2</t>
         </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -629,18 +695,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SummarySheets\Summary_08-11-2023_01-57-14.xlsx</t>
+          <t>SummarySheets\Summary_18-11-2023_03-14-39.xlsx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08-11-2023</t>
+          <t>18-11-2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DeepMind</t>
-        </is>
+          <t>DEEPMIND</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
